--- a/Process Dataframes/Wiki.xlsx
+++ b/Process Dataframes/Wiki.xlsx
@@ -745,7 +745,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -762,6 +762,10 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -792,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -800,6 +804,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1040,7 +1047,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
